--- a/irctcSimulationScBzaRouteTrainsData.xlsx
+++ b/irctcSimulationScBzaRouteTrainsData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$115</definedName>
@@ -1118,12 +1119,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4842,11 +4845,3547 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J115">
-    <sortState ref="A2:J115">
-      <sortCondition descending="1" ref="I1:I115"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J115"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K369"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2-A1</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2,-D1)</f>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2,-G1)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>SUM(J2,-J1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B39" si="0">A3-A2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E33" si="1">SUM(D3,-D2)</f>
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">SUM(G3,-G2)</f>
+        <v>235</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>315</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>405</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>415</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>415</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>425</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>430</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>435</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>450</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>215</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>455</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>215</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>455</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>240</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>480</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>265</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>485</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>265</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>525</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>280</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>555</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>300</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>565</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>330</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>585</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>330</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>635</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>395</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>635</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>465</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>645</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>610</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="G23">
+        <v>710</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>620</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>730</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>640</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>750</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>640</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>790</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>675</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>795</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>765</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G28">
+        <v>870</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="J28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>795</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>885</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>820</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>885</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>820</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>905</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>900</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>910</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>930</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>910</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>910</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>940</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>945</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>110</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>960</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>985</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J38">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>115</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>1035</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J39">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>130</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1045</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>130</v>
+      </c>
+      <c r="G41">
+        <v>1055</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>130</v>
+      </c>
+      <c r="G42">
+        <v>1060</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>130</v>
+      </c>
+      <c r="G43">
+        <v>1070</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>130</v>
+      </c>
+      <c r="G44">
+        <v>1075</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="G45">
+        <v>1105</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="J45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>155</v>
+      </c>
+      <c r="G46">
+        <v>1115</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>155</v>
+      </c>
+      <c r="G47">
+        <v>1115</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>155</v>
+      </c>
+      <c r="G48">
+        <v>1155</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>155</v>
+      </c>
+      <c r="G49">
+        <v>1165</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>155</v>
+      </c>
+      <c r="G50">
+        <v>1175</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>155</v>
+      </c>
+      <c r="G51">
+        <v>1190</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>160</v>
+      </c>
+      <c r="G52">
+        <v>1250</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>160</v>
+      </c>
+      <c r="G53">
+        <v>1265</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>160</v>
+      </c>
+      <c r="G54">
+        <v>1285</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>165</v>
+      </c>
+      <c r="G55">
+        <v>1305</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>170</v>
+      </c>
+      <c r="G56">
+        <v>1305</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>170</v>
+      </c>
+      <c r="G57">
+        <v>1310</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>170</v>
+      </c>
+      <c r="G58">
+        <v>1350</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>170</v>
+      </c>
+      <c r="G59">
+        <v>1360</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>170</v>
+      </c>
+      <c r="G60">
+        <v>1370</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>180</v>
+      </c>
+      <c r="G61">
+        <v>1375</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>190</v>
+      </c>
+      <c r="G62">
+        <v>1375</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>200</v>
+      </c>
+      <c r="G63">
+        <v>1385</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>200</v>
+      </c>
+      <c r="G64">
+        <v>1395</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>210</v>
+      </c>
+      <c r="G65">
+        <v>1400</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>215</v>
+      </c>
+      <c r="G66">
+        <v>1410</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>215</v>
+      </c>
+      <c r="J67">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>235</v>
+      </c>
+      <c r="J68">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>235</v>
+      </c>
+      <c r="J69">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>235</v>
+      </c>
+      <c r="J70">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>235</v>
+      </c>
+      <c r="J71">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>240</v>
+      </c>
+      <c r="J72">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>240</v>
+      </c>
+      <c r="J73">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>240</v>
+      </c>
+      <c r="J74">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>240</v>
+      </c>
+      <c r="J75">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>245</v>
+      </c>
+      <c r="J76">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>250</v>
+      </c>
+      <c r="J77">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>265</v>
+      </c>
+      <c r="J78">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>265</v>
+      </c>
+      <c r="B79">
+        <f>SUM(A76,-A75)</f>
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>270</v>
+      </c>
+      <c r="J80">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>280</v>
+      </c>
+      <c r="J81">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>285</v>
+      </c>
+      <c r="J82">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>285</v>
+      </c>
+      <c r="J83">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>290</v>
+      </c>
+      <c r="J84">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>290</v>
+      </c>
+      <c r="J85">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>295</v>
+      </c>
+      <c r="J86">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>300</v>
+      </c>
+      <c r="J87">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>300</v>
+      </c>
+      <c r="J88">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>310</v>
+      </c>
+      <c r="B89">
+        <f>SUM(A86,-A85)</f>
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>310</v>
+      </c>
+      <c r="J90">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>315</v>
+      </c>
+      <c r="J91">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>315</v>
+      </c>
+      <c r="J92">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>320</v>
+      </c>
+      <c r="J93">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>320</v>
+      </c>
+      <c r="J94">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>320</v>
+      </c>
+      <c r="J95">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>330</v>
+      </c>
+      <c r="B96">
+        <f>SUM(A93,-A92)</f>
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>330</v>
+      </c>
+      <c r="B97">
+        <f>SUM(A94,-A93)</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>330</v>
+      </c>
+      <c r="B98">
+        <f>SUM(A95,-A94)</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>330</v>
+      </c>
+      <c r="J99">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>330</v>
+      </c>
+      <c r="J100">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>330</v>
+      </c>
+      <c r="J101">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>330</v>
+      </c>
+      <c r="J102">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>330</v>
+      </c>
+      <c r="J103">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>340</v>
+      </c>
+      <c r="J104">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>345</v>
+      </c>
+      <c r="J105">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>345</v>
+      </c>
+      <c r="J106">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>345</v>
+      </c>
+      <c r="J107">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>350</v>
+      </c>
+      <c r="B108">
+        <f>SUM(A105,-A104)</f>
+        <v>5</v>
+      </c>
+      <c r="J108">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>355</v>
+      </c>
+      <c r="B109">
+        <f>SUM(A106,-A105)</f>
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>365</v>
+      </c>
+      <c r="J110">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>365</v>
+      </c>
+      <c r="J111">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>365</v>
+      </c>
+      <c r="J112">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>365</v>
+      </c>
+      <c r="J113">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>365</v>
+      </c>
+      <c r="J114">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>385</v>
+      </c>
+      <c r="J115">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>395</v>
+      </c>
+      <c r="J116">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>395</v>
+      </c>
+      <c r="J117">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>405</v>
+      </c>
+      <c r="J118">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>405</v>
+      </c>
+      <c r="J119">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>415</v>
+      </c>
+      <c r="J120">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>415</v>
+      </c>
+      <c r="J121">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>415</v>
+      </c>
+      <c r="J122">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>420</v>
+      </c>
+      <c r="J123">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>425</v>
+      </c>
+      <c r="J124">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>430</v>
+      </c>
+      <c r="J125">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>430</v>
+      </c>
+      <c r="B126">
+        <f>SUM(A123,-A122)</f>
+        <v>5</v>
+      </c>
+      <c r="J126">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>430</v>
+      </c>
+      <c r="J127">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>430</v>
+      </c>
+      <c r="J128">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>430</v>
+      </c>
+      <c r="J129">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>430</v>
+      </c>
+      <c r="J130">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>435</v>
+      </c>
+      <c r="J131">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>440</v>
+      </c>
+      <c r="J132">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>440</v>
+      </c>
+      <c r="J133">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>440</v>
+      </c>
+      <c r="J134">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>440</v>
+      </c>
+      <c r="B135">
+        <f>SUM(A132,-A131)</f>
+        <v>5</v>
+      </c>
+      <c r="J135">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>440</v>
+      </c>
+      <c r="J136">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>450</v>
+      </c>
+      <c r="J137">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>450</v>
+      </c>
+      <c r="J138">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>455</v>
+      </c>
+      <c r="J139">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>455</v>
+      </c>
+      <c r="B140">
+        <f>SUM(A137,-A136)</f>
+        <v>10</v>
+      </c>
+      <c r="J140">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>460</v>
+      </c>
+      <c r="J141">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>465</v>
+      </c>
+      <c r="J142">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>465</v>
+      </c>
+      <c r="J143">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>470</v>
+      </c>
+      <c r="B144">
+        <f>SUM(A141,-A140)</f>
+        <v>5</v>
+      </c>
+      <c r="J144">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>480</v>
+      </c>
+      <c r="B145">
+        <f>SUM(A142,-A141)</f>
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>480</v>
+      </c>
+      <c r="J146">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>480</v>
+      </c>
+      <c r="J147">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>485</v>
+      </c>
+      <c r="J148">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>510</v>
+      </c>
+      <c r="J149">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>510</v>
+      </c>
+      <c r="J150">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>510</v>
+      </c>
+      <c r="J151">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>510</v>
+      </c>
+      <c r="J152">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>510</v>
+      </c>
+      <c r="J153">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>525</v>
+      </c>
+      <c r="J154">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>525</v>
+      </c>
+      <c r="J155">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>545</v>
+      </c>
+      <c r="J156">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>555</v>
+      </c>
+      <c r="J157">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>565</v>
+      </c>
+      <c r="J158">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>565</v>
+      </c>
+      <c r="J159">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>565</v>
+      </c>
+      <c r="J160">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>565</v>
+      </c>
+      <c r="B161">
+        <f>SUM(A158,-A157)</f>
+        <v>10</v>
+      </c>
+      <c r="J161">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>580</v>
+      </c>
+      <c r="B162">
+        <f>SUM(A159,-A158)</f>
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>580</v>
+      </c>
+      <c r="J163">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>585</v>
+      </c>
+      <c r="J164">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>600</v>
+      </c>
+      <c r="J165">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>610</v>
+      </c>
+      <c r="J166">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>620</v>
+      </c>
+      <c r="J167">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>620</v>
+      </c>
+      <c r="J168">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>620</v>
+      </c>
+      <c r="J169">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>620</v>
+      </c>
+      <c r="B170">
+        <f>SUM(A167,-A166)</f>
+        <v>10</v>
+      </c>
+      <c r="J170">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>620</v>
+      </c>
+      <c r="J171">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>630</v>
+      </c>
+      <c r="J172">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>635</v>
+      </c>
+      <c r="J173">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>635</v>
+      </c>
+      <c r="J174">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>635</v>
+      </c>
+      <c r="B175">
+        <f>SUM(A172,-A171)</f>
+        <v>10</v>
+      </c>
+      <c r="J175">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>635</v>
+      </c>
+      <c r="J176">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>640</v>
+      </c>
+      <c r="J177">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>640</v>
+      </c>
+      <c r="J178">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>640</v>
+      </c>
+      <c r="J179">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>640</v>
+      </c>
+      <c r="J180">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>640</v>
+      </c>
+      <c r="J181">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>645</v>
+      </c>
+      <c r="J182">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>665</v>
+      </c>
+      <c r="J183">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>670</v>
+      </c>
+      <c r="J184">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>675</v>
+      </c>
+      <c r="J185">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>700</v>
+      </c>
+      <c r="J186">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>700</v>
+      </c>
+      <c r="J187">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>700</v>
+      </c>
+      <c r="J188">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>700</v>
+      </c>
+      <c r="J189">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>700</v>
+      </c>
+      <c r="J190">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>710</v>
+      </c>
+      <c r="J191">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>710</v>
+      </c>
+      <c r="J192">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>710</v>
+      </c>
+      <c r="J193">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>715</v>
+      </c>
+      <c r="J194">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>720</v>
+      </c>
+      <c r="J195">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>720</v>
+      </c>
+      <c r="J196">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>730</v>
+      </c>
+      <c r="J197">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>730</v>
+      </c>
+      <c r="J198">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>740</v>
+      </c>
+      <c r="J199">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>750</v>
+      </c>
+      <c r="J200">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>760</v>
+      </c>
+      <c r="J201">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>765</v>
+      </c>
+      <c r="J202">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>775</v>
+      </c>
+      <c r="J203">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>785</v>
+      </c>
+      <c r="J204">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>785</v>
+      </c>
+      <c r="J205">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>785</v>
+      </c>
+      <c r="B206">
+        <f>SUM(A203,-A202)</f>
+        <v>10</v>
+      </c>
+      <c r="J206">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>790</v>
+      </c>
+      <c r="J207">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>795</v>
+      </c>
+      <c r="J208">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>795</v>
+      </c>
+      <c r="J209">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>820</v>
+      </c>
+      <c r="J210">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>820</v>
+      </c>
+      <c r="J211">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>825</v>
+      </c>
+      <c r="J212">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>845</v>
+      </c>
+      <c r="J213">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>855</v>
+      </c>
+      <c r="J214">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>855</v>
+      </c>
+      <c r="J215">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>855</v>
+      </c>
+      <c r="J216">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>855</v>
+      </c>
+      <c r="J217">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>855</v>
+      </c>
+      <c r="J218">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>855</v>
+      </c>
+      <c r="J219">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>860</v>
+      </c>
+      <c r="J220">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>860</v>
+      </c>
+      <c r="J221">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>860</v>
+      </c>
+      <c r="J222">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>870</v>
+      </c>
+      <c r="J223">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>870</v>
+      </c>
+      <c r="J224">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>870</v>
+      </c>
+      <c r="J225">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>870</v>
+      </c>
+      <c r="J226">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>880</v>
+      </c>
+      <c r="J227">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>885</v>
+      </c>
+      <c r="J228">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>885</v>
+      </c>
+      <c r="J229">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>885</v>
+      </c>
+      <c r="J230">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>890</v>
+      </c>
+      <c r="J231">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>890</v>
+      </c>
+      <c r="J232">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>900</v>
+      </c>
+      <c r="J233">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>905</v>
+      </c>
+      <c r="J234">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>905</v>
+      </c>
+      <c r="J235">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>910</v>
+      </c>
+      <c r="J236">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>910</v>
+      </c>
+      <c r="J237">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>910</v>
+      </c>
+      <c r="J238">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>910</v>
+      </c>
+      <c r="J239">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>910</v>
+      </c>
+      <c r="J240">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>930</v>
+      </c>
+      <c r="J241">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>930</v>
+      </c>
+      <c r="J242">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>930</v>
+      </c>
+      <c r="J243">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>930</v>
+      </c>
+      <c r="J244">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>930</v>
+      </c>
+      <c r="J245">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>940</v>
+      </c>
+      <c r="J246">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>950</v>
+      </c>
+      <c r="B251">
+        <f>SUM(A248,-A247)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>970</v>
+      </c>
+      <c r="B261">
+        <f>SUM(A258,-A257)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>990</v>
+      </c>
+      <c r="B265">
+        <f>SUM(A262,-A261)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1000</v>
+      </c>
+      <c r="B266">
+        <f>SUM(A263,-A262)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1045</v>
+      </c>
+      <c r="B276">
+        <f>SUM(A273,-A272)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1060</v>
+      </c>
+      <c r="B281">
+        <f>SUM(A278,-A277)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1425</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:B369">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>